--- a/CodeVS/data/output/tugboat_schedule_algorithm_ODR_013.xlsx
+++ b/CodeVS/data/output/tugboat_schedule_algorithm_ODR_013.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="177">
   <si>
     <t>ID</t>
   </si>
@@ -115,7 +115,7 @@
     <t>Travel To Carrier</t>
   </si>
   <si>
-    <t>Sea-Sea</t>
+    <t>Sea-Sea Empty Barges</t>
   </si>
   <si>
     <t>Start Order Carrier</t>
@@ -127,7 +127,7 @@
     <t>Appointment</t>
   </si>
   <si>
-    <t>Sea-River</t>
+    <t>Sea-River Load Barges</t>
   </si>
   <si>
     <t>Barge Release</t>
@@ -145,7 +145,7 @@
     <t>Customer Station</t>
   </si>
   <si>
-    <t>River-River</t>
+    <t>River-River Load Barges</t>
   </si>
   <si>
     <t>Loader-Customer</t>
@@ -256,9 +256,6 @@
     <t>From Bang Hua Suea To PR NKL L, Sinwatthana NKL L</t>
   </si>
   <si>
-    <t>stop at ST_014</t>
-  </si>
-  <si>
     <t>ST_014 to ST_015</t>
   </si>
   <si>
@@ -304,9 +301,6 @@
     <t>ST_028 to ST_029</t>
   </si>
   <si>
-    <t>stop at ST_029</t>
-  </si>
-  <si>
     <t>ST_029 to ST_030</t>
   </si>
   <si>
@@ -349,9 +343,6 @@
     <t>ST_042 to ST_043</t>
   </si>
   <si>
-    <t>stop at ST_043</t>
-  </si>
-  <si>
     <t>ST_043 to ST_044</t>
   </si>
   <si>
@@ -388,9 +379,6 @@
     <t>release_point</t>
   </si>
   <si>
-    <t>water_level_point</t>
-  </si>
-  <si>
     <t>B_075,B_089,B_031,B_025</t>
   </si>
   <si>
@@ -418,7 +406,7 @@
     <t>B_031,B_025</t>
   </si>
   <si>
-    <t>{'travel_time': 0.0, 'last_location': (13.1885, 100.815), 'speed': 0, 'start_object': &lt;CodeVS.components.carrier.Carrier object at 0x000001D4A2A26810&gt;, 'travel_distance': 0.0, 'travel_steps': [&lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001D4A24FE5A0&gt;], 'exit_datetime': datetime.datetime(2025, 2, 9, 10, 0)}</t>
+    <t>{'travel_time': 0.0, 'last_location': (13.1885, 100.815), 'speed': 0, 'start_object': &lt;CodeVS.components.carrier.Carrier object at 0x000001B74243CF20&gt;, 'travel_distance': 0.0, 'travel_steps': [&lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001B7434A3DA0&gt;], 'exit_datetime': datetime.datetime(2025, 2, 9, 10, 0)}</t>
   </si>
   <si>
     <t>ST_001</t>
@@ -918,7 +906,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X77"/>
+  <dimension ref="A1:X74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1030,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="L2">
         <v>1</v>
@@ -1057,13 +1045,13 @@
         <v>28</v>
       </c>
       <c r="V2" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="W2" t="s">
         <v>26</v>
       </c>
       <c r="X2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3" spans="1:24">
@@ -1098,13 +1086,13 @@
         <v>12</v>
       </c>
       <c r="K3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="N3">
         <v>1600</v>
@@ -1125,19 +1113,19 @@
         <v>45697.41666666666</v>
       </c>
       <c r="T3" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="U3" t="s">
         <v>28</v>
       </c>
       <c r="V3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="W3" t="s">
         <v>26</v>
       </c>
       <c r="X3" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="4" spans="1:24">
@@ -1172,13 +1160,13 @@
         <v>12</v>
       </c>
       <c r="K4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="N4">
         <v>400</v>
@@ -1199,16 +1187,16 @@
         <v>0</v>
       </c>
       <c r="U4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="V4" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="W4" t="s">
         <v>26</v>
       </c>
       <c r="X4" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:24">
@@ -1243,13 +1231,13 @@
         <v>0</v>
       </c>
       <c r="K5" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="N5">
         <v>800</v>
@@ -1270,16 +1258,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="V5" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="W5" t="s">
         <v>26</v>
       </c>
       <c r="X5" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:24">
@@ -1314,13 +1302,13 @@
         <v>0</v>
       </c>
       <c r="K6" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="N6">
         <v>1200</v>
@@ -1341,16 +1329,16 @@
         <v>0</v>
       </c>
       <c r="U6" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="V6" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="W6" t="s">
         <v>26</v>
       </c>
       <c r="X6" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="7" spans="1:24">
@@ -1385,13 +1373,13 @@
         <v>0</v>
       </c>
       <c r="K7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7" t="s">
         <v>121</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7" t="s">
-        <v>125</v>
       </c>
       <c r="N7">
         <v>1600</v>
@@ -1412,16 +1400,16 @@
         <v>0</v>
       </c>
       <c r="U7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="V7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="W7" t="s">
         <v>26</v>
       </c>
       <c r="X7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="8" spans="1:24">
@@ -1456,13 +1444,13 @@
         <v>0</v>
       </c>
       <c r="K8" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -1483,16 +1471,16 @@
         <v>0</v>
       </c>
       <c r="U8" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="V8" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="W8" t="s">
         <v>26</v>
       </c>
       <c r="X8" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="9" spans="1:24">
@@ -1527,14 +1515,14 @@
         <v>8.414457831325301</v>
       </c>
       <c r="K9" t="s">
+        <v>118</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9" t="s">
         <v>121</v>
       </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9" t="s">
-        <v>125</v>
-      </c>
       <c r="N9">
         <v>0</v>
       </c>
@@ -1554,16 +1542,16 @@
         <v>0</v>
       </c>
       <c r="U9" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="V9" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="W9" t="s">
         <v>26</v>
       </c>
       <c r="X9" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="10" spans="1:24">
@@ -1598,13 +1586,13 @@
         <v>0</v>
       </c>
       <c r="K10" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="N10">
         <v>8700</v>
@@ -1625,16 +1613,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="V10" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="W10" t="s">
         <v>26</v>
       </c>
       <c r="X10" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="11" spans="1:24">
@@ -1669,13 +1657,13 @@
         <v>280</v>
       </c>
       <c r="K11" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="N11">
         <v>3150</v>
@@ -1696,16 +1684,16 @@
         <v>0</v>
       </c>
       <c r="U11" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="V11" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="W11" t="s">
         <v>26</v>
       </c>
       <c r="X11" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="12" spans="1:24">
@@ -1740,13 +1728,13 @@
         <v>270</v>
       </c>
       <c r="K12" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="N12">
         <v>2900</v>
@@ -1767,16 +1755,16 @@
         <v>0</v>
       </c>
       <c r="U12" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="V12" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="W12" t="s">
         <v>26</v>
       </c>
       <c r="X12" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="13" spans="1:24">
@@ -1811,13 +1799,13 @@
         <v>260</v>
       </c>
       <c r="K13" t="s">
+        <v>119</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13" t="s">
         <v>122</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13" t="s">
-        <v>126</v>
       </c>
       <c r="N13">
         <v>2500</v>
@@ -1838,16 +1826,16 @@
         <v>0</v>
       </c>
       <c r="U13" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="V13" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="W13" t="s">
         <v>26</v>
       </c>
       <c r="X13" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="14" spans="1:24">
@@ -1882,13 +1870,13 @@
         <v>250</v>
       </c>
       <c r="K14" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="N14">
         <v>150</v>
@@ -1909,16 +1897,16 @@
         <v>0</v>
       </c>
       <c r="U14" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="V14" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="W14" t="s">
         <v>26</v>
       </c>
       <c r="X14" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="15" spans="1:24">
@@ -1953,13 +1941,13 @@
         <v>6.318072289156627</v>
       </c>
       <c r="K15" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="N15">
         <v>8700</v>
@@ -1980,16 +1968,16 @@
         <v>0</v>
       </c>
       <c r="U15" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="V15" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="W15" t="s">
         <v>26</v>
       </c>
       <c r="X15" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="16" spans="1:24">
@@ -2024,13 +2012,13 @@
         <v>6.318072289156627</v>
       </c>
       <c r="K16" t="s">
+        <v>118</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16" t="s">
         <v>121</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16" t="s">
-        <v>125</v>
       </c>
       <c r="N16">
         <v>8700</v>
@@ -2051,16 +2039,16 @@
         <v>0</v>
       </c>
       <c r="U16" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="V16" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="W16" t="s">
         <v>26</v>
       </c>
       <c r="X16" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="17" spans="1:24">
@@ -2095,13 +2083,13 @@
         <v>6.318072289156627</v>
       </c>
       <c r="K17" t="s">
+        <v>118</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17" t="s">
         <v>121</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17" t="s">
-        <v>125</v>
       </c>
       <c r="N17">
         <v>8700</v>
@@ -2122,16 +2110,16 @@
         <v>0</v>
       </c>
       <c r="U17" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="V17" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="W17" t="s">
         <v>26</v>
       </c>
       <c r="X17" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="18" spans="1:24">
@@ -2166,13 +2154,13 @@
         <v>6.318072289156627</v>
       </c>
       <c r="K18" t="s">
+        <v>118</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18" t="s">
         <v>121</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18" t="s">
-        <v>125</v>
       </c>
       <c r="N18">
         <v>8700</v>
@@ -2193,16 +2181,16 @@
         <v>0</v>
       </c>
       <c r="U18" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="V18" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="W18" t="s">
         <v>26</v>
       </c>
       <c r="X18" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="19" spans="1:24">
@@ -2237,13 +2225,13 @@
         <v>6.318072289156627</v>
       </c>
       <c r="K19" t="s">
+        <v>118</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19" t="s">
         <v>121</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19" t="s">
-        <v>125</v>
       </c>
       <c r="N19">
         <v>8700</v>
@@ -2264,16 +2252,16 @@
         <v>0</v>
       </c>
       <c r="U19" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="V19" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="W19" t="s">
         <v>26</v>
       </c>
       <c r="X19" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="20" spans="1:24">
@@ -2308,13 +2296,13 @@
         <v>6.318072289156627</v>
       </c>
       <c r="K20" t="s">
+        <v>118</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20" t="s">
         <v>121</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20" t="s">
-        <v>125</v>
       </c>
       <c r="N20">
         <v>8700</v>
@@ -2335,16 +2323,16 @@
         <v>0</v>
       </c>
       <c r="U20" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="V20" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="W20" t="s">
         <v>26</v>
       </c>
       <c r="X20" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="21" spans="1:24">
@@ -2379,13 +2367,13 @@
         <v>6.318072289156627</v>
       </c>
       <c r="K21" t="s">
+        <v>118</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21" t="s">
         <v>121</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21" t="s">
-        <v>125</v>
       </c>
       <c r="N21">
         <v>8700</v>
@@ -2406,16 +2394,16 @@
         <v>0</v>
       </c>
       <c r="U21" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="V21" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="W21" t="s">
         <v>26</v>
       </c>
       <c r="X21" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="22" spans="1:24">
@@ -2450,13 +2438,13 @@
         <v>6.318072289156627</v>
       </c>
       <c r="K22" t="s">
+        <v>118</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22" t="s">
         <v>121</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22" t="s">
-        <v>125</v>
       </c>
       <c r="N22">
         <v>8700</v>
@@ -2477,16 +2465,16 @@
         <v>0</v>
       </c>
       <c r="U22" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="V22" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="W22" t="s">
         <v>26</v>
       </c>
       <c r="X22" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="23" spans="1:24">
@@ -2521,13 +2509,13 @@
         <v>6.318072289156627</v>
       </c>
       <c r="K23" t="s">
+        <v>118</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23" t="s">
         <v>121</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23" t="s">
-        <v>125</v>
       </c>
       <c r="N23">
         <v>8700</v>
@@ -2548,16 +2536,16 @@
         <v>0</v>
       </c>
       <c r="U23" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="V23" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="W23" t="s">
         <v>26</v>
       </c>
       <c r="X23" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="24" spans="1:24">
@@ -2592,13 +2580,13 @@
         <v>6.318072289156627</v>
       </c>
       <c r="K24" t="s">
+        <v>118</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24" t="s">
         <v>121</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24" t="s">
-        <v>125</v>
       </c>
       <c r="N24">
         <v>8700</v>
@@ -2619,16 +2607,16 @@
         <v>0</v>
       </c>
       <c r="U24" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="V24" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="W24" t="s">
         <v>26</v>
       </c>
       <c r="X24" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="25" spans="1:24">
@@ -2663,13 +2651,13 @@
         <v>6.318072289156627</v>
       </c>
       <c r="K25" t="s">
+        <v>118</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25" t="s">
         <v>121</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25" t="s">
-        <v>125</v>
       </c>
       <c r="N25">
         <v>8700</v>
@@ -2690,16 +2678,16 @@
         <v>0</v>
       </c>
       <c r="U25" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="V25" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="W25" t="s">
         <v>26</v>
       </c>
       <c r="X25" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="26" spans="1:24">
@@ -2734,7 +2722,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="L26">
         <v>1</v>
@@ -2761,13 +2749,13 @@
         <v>28</v>
       </c>
       <c r="V26" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="W26" t="s">
         <v>26</v>
       </c>
       <c r="X26" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="27" spans="1:24">
@@ -2802,13 +2790,13 @@
         <v>0</v>
       </c>
       <c r="K27" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="N27">
         <v>6200</v>
@@ -2832,13 +2820,13 @@
         <v>28</v>
       </c>
       <c r="V27" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="W27" t="s">
         <v>26</v>
       </c>
       <c r="X27" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="28" spans="1:24">
@@ -2873,13 +2861,13 @@
         <v>0</v>
       </c>
       <c r="K28" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="N28">
         <v>3050</v>
@@ -2903,13 +2891,13 @@
         <v>28</v>
       </c>
       <c r="V28" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="W28" t="s">
         <v>26</v>
       </c>
       <c r="X28" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="29" spans="1:24">
@@ -2944,13 +2932,13 @@
         <v>0</v>
       </c>
       <c r="K29" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="N29">
         <v>150</v>
@@ -2974,13 +2962,13 @@
         <v>28</v>
       </c>
       <c r="V29" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="W29" t="s">
         <v>26</v>
       </c>
       <c r="X29" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="30" spans="1:24">
@@ -3015,7 +3003,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="L30">
         <v>1</v>
@@ -3042,13 +3030,13 @@
         <v>28</v>
       </c>
       <c r="V30" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="W30" t="s">
         <v>26</v>
       </c>
       <c r="X30" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="31" spans="1:24">
@@ -3083,7 +3071,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="L31">
         <v>1</v>
@@ -3110,13 +3098,13 @@
         <v>28</v>
       </c>
       <c r="V31" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="W31" t="s">
         <v>26</v>
       </c>
       <c r="X31" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="32" spans="1:24">
@@ -3151,13 +3139,13 @@
         <v>12</v>
       </c>
       <c r="K32" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="N32">
         <v>8700</v>
@@ -3181,13 +3169,13 @@
         <v>28</v>
       </c>
       <c r="V32" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="W32" t="s">
         <v>26</v>
       </c>
       <c r="X32" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="33" spans="1:24">
@@ -3222,13 +3210,13 @@
         <v>0</v>
       </c>
       <c r="K33" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="N33">
         <v>2500</v>
@@ -3252,13 +3240,13 @@
         <v>28</v>
       </c>
       <c r="V33" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="W33" t="s">
         <v>26</v>
       </c>
       <c r="X33" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="34" spans="1:24">
@@ -3293,13 +3281,13 @@
         <v>0</v>
       </c>
       <c r="K34" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="N34">
         <v>5650</v>
@@ -3323,13 +3311,13 @@
         <v>28</v>
       </c>
       <c r="V34" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="W34" t="s">
         <v>26</v>
       </c>
       <c r="X34" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="35" spans="1:24">
@@ -3364,13 +3352,13 @@
         <v>0</v>
       </c>
       <c r="K35" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="N35">
         <v>8550</v>
@@ -3394,13 +3382,13 @@
         <v>28</v>
       </c>
       <c r="V35" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="W35" t="s">
         <v>26</v>
       </c>
       <c r="X35" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="36" spans="1:24">
@@ -3435,13 +3423,13 @@
         <v>0</v>
       </c>
       <c r="K36" t="s">
+        <v>118</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36" t="s">
         <v>121</v>
-      </c>
-      <c r="L36">
-        <v>1</v>
-      </c>
-      <c r="M36" t="s">
-        <v>125</v>
       </c>
       <c r="N36">
         <v>8700</v>
@@ -3465,13 +3453,13 @@
         <v>28</v>
       </c>
       <c r="V36" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="W36" t="s">
         <v>26</v>
       </c>
       <c r="X36" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="37" spans="1:24">
@@ -3506,13 +3494,13 @@
         <v>6.158974358974358</v>
       </c>
       <c r="K37" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="N37">
         <v>8700</v>
@@ -3536,13 +3524,13 @@
         <v>28</v>
       </c>
       <c r="V37" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="W37" t="s">
         <v>26</v>
       </c>
       <c r="X37" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="38" spans="1:24">
@@ -3562,28 +3550,28 @@
         <v>45699.11021486724</v>
       </c>
       <c r="F38" s="2">
-        <v>45699.11021486724</v>
+        <v>45699.1440408456</v>
       </c>
       <c r="G38">
         <v>16.81182348055556</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>0.8118234804329726</v>
       </c>
       <c r="J38">
-        <v>0</v>
+        <v>6.158974358974358</v>
       </c>
       <c r="K38" t="s">
+        <v>118</v>
+      </c>
+      <c r="L38">
+        <v>1</v>
+      </c>
+      <c r="M38" t="s">
         <v>121</v>
-      </c>
-      <c r="L38">
-        <v>1</v>
-      </c>
-      <c r="M38" t="s">
-        <v>125</v>
       </c>
       <c r="N38">
         <v>8700</v>
@@ -3607,13 +3595,13 @@
         <v>28</v>
       </c>
       <c r="V38" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="W38" t="s">
         <v>26</v>
       </c>
       <c r="X38" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="39" spans="1:24">
@@ -3627,34 +3615,34 @@
         <v>81</v>
       </c>
       <c r="D39" s="2">
-        <v>45699.11021486724</v>
+        <v>45699.1440408456</v>
       </c>
       <c r="E39" s="2">
-        <v>45699.11021486724</v>
+        <v>45699.1440408456</v>
       </c>
       <c r="F39" s="2">
-        <v>45699.1440408456</v>
+        <v>45699.15757123694</v>
       </c>
       <c r="G39">
         <v>0</v>
       </c>
       <c r="H39">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I39">
-        <v>0.8118234804329726</v>
+        <v>0.324729392173189</v>
       </c>
       <c r="J39">
-        <v>0</v>
+        <v>6.158974358974358</v>
       </c>
       <c r="K39" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="L39">
         <v>1</v>
       </c>
       <c r="M39" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="N39">
         <v>8700</v>
@@ -3675,16 +3663,16 @@
         <v>0</v>
       </c>
       <c r="U39" t="s">
-        <v>28</v>
+        <v>141</v>
       </c>
       <c r="V39" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="W39" t="s">
         <v>26</v>
       </c>
       <c r="X39" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="40" spans="1:24">
@@ -3698,13 +3686,13 @@
         <v>82</v>
       </c>
       <c r="D40" s="2">
-        <v>45699.1440408456</v>
+        <v>45699.15757123694</v>
       </c>
       <c r="E40" s="2">
-        <v>45699.1440408456</v>
+        <v>45699.15757123694</v>
       </c>
       <c r="F40" s="2">
-        <v>45699.15757123694</v>
+        <v>45699.17110162829</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -3719,13 +3707,13 @@
         <v>6.158974358974358</v>
       </c>
       <c r="K40" t="s">
+        <v>118</v>
+      </c>
+      <c r="L40">
+        <v>1</v>
+      </c>
+      <c r="M40" t="s">
         <v>121</v>
-      </c>
-      <c r="L40">
-        <v>1</v>
-      </c>
-      <c r="M40" t="s">
-        <v>125</v>
       </c>
       <c r="N40">
         <v>8700</v>
@@ -3746,16 +3734,16 @@
         <v>0</v>
       </c>
       <c r="U40" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="V40" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="W40" t="s">
         <v>26</v>
       </c>
       <c r="X40" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="41" spans="1:24">
@@ -3769,34 +3757,34 @@
         <v>83</v>
       </c>
       <c r="D41" s="2">
-        <v>45699.15757123694</v>
+        <v>45699.17110162829</v>
       </c>
       <c r="E41" s="2">
-        <v>45699.15757123694</v>
+        <v>45699.17110162829</v>
       </c>
       <c r="F41" s="2">
-        <v>45699.17110162829</v>
+        <v>45699.17786682396</v>
       </c>
       <c r="G41">
         <v>0</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I41">
-        <v>0.324729392173189</v>
+        <v>0.1623646960865945</v>
       </c>
       <c r="J41">
         <v>6.158974358974358</v>
       </c>
       <c r="K41" t="s">
+        <v>118</v>
+      </c>
+      <c r="L41">
+        <v>1</v>
+      </c>
+      <c r="M41" t="s">
         <v>121</v>
-      </c>
-      <c r="L41">
-        <v>1</v>
-      </c>
-      <c r="M41" t="s">
-        <v>125</v>
       </c>
       <c r="N41">
         <v>8700</v>
@@ -3817,16 +3805,16 @@
         <v>0</v>
       </c>
       <c r="U41" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="V41" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="W41" t="s">
         <v>26</v>
       </c>
       <c r="X41" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="42" spans="1:24">
@@ -3840,34 +3828,34 @@
         <v>84</v>
       </c>
       <c r="D42" s="2">
-        <v>45699.17110162829</v>
+        <v>45699.17786682396</v>
       </c>
       <c r="E42" s="2">
-        <v>45699.17110162829</v>
+        <v>45699.17786682396</v>
       </c>
       <c r="F42" s="2">
-        <v>45699.17786682396</v>
+        <v>45699.20492760665</v>
       </c>
       <c r="G42">
         <v>0</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I42">
-        <v>0.1623646960865945</v>
+        <v>0.649458784346378</v>
       </c>
       <c r="J42">
         <v>6.158974358974358</v>
       </c>
       <c r="K42" t="s">
+        <v>118</v>
+      </c>
+      <c r="L42">
+        <v>1</v>
+      </c>
+      <c r="M42" t="s">
         <v>121</v>
-      </c>
-      <c r="L42">
-        <v>1</v>
-      </c>
-      <c r="M42" t="s">
-        <v>125</v>
       </c>
       <c r="N42">
         <v>8700</v>
@@ -3888,16 +3876,16 @@
         <v>0</v>
       </c>
       <c r="U42" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="V42" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="W42" t="s">
         <v>26</v>
       </c>
       <c r="X42" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="43" spans="1:24">
@@ -3911,34 +3899,34 @@
         <v>85</v>
       </c>
       <c r="D43" s="2">
-        <v>45699.17786682396</v>
+        <v>45699.20492760665</v>
       </c>
       <c r="E43" s="2">
-        <v>45699.17786682396</v>
+        <v>45699.20492760665</v>
       </c>
       <c r="F43" s="2">
-        <v>45699.20492760665</v>
+        <v>45699.21845799799</v>
       </c>
       <c r="G43">
         <v>0</v>
       </c>
       <c r="H43">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I43">
-        <v>0.649458784346378</v>
+        <v>0.324729392173189</v>
       </c>
       <c r="J43">
         <v>6.158974358974358</v>
       </c>
       <c r="K43" t="s">
+        <v>118</v>
+      </c>
+      <c r="L43">
+        <v>1</v>
+      </c>
+      <c r="M43" t="s">
         <v>121</v>
-      </c>
-      <c r="L43">
-        <v>1</v>
-      </c>
-      <c r="M43" t="s">
-        <v>125</v>
       </c>
       <c r="N43">
         <v>8700</v>
@@ -3959,16 +3947,16 @@
         <v>0</v>
       </c>
       <c r="U43" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="V43" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="W43" t="s">
         <v>26</v>
       </c>
       <c r="X43" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="44" spans="1:24">
@@ -3982,34 +3970,34 @@
         <v>86</v>
       </c>
       <c r="D44" s="2">
-        <v>45699.20492760665</v>
+        <v>45699.21845799799</v>
       </c>
       <c r="E44" s="2">
-        <v>45699.20492760665</v>
+        <v>45699.21845799799</v>
       </c>
       <c r="F44" s="2">
-        <v>45699.21845799799</v>
+        <v>45699.238753585</v>
       </c>
       <c r="G44">
         <v>0</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I44">
-        <v>0.324729392173189</v>
+        <v>0.4870940882597836</v>
       </c>
       <c r="J44">
         <v>6.158974358974358</v>
       </c>
       <c r="K44" t="s">
+        <v>118</v>
+      </c>
+      <c r="L44">
+        <v>1</v>
+      </c>
+      <c r="M44" t="s">
         <v>121</v>
-      </c>
-      <c r="L44">
-        <v>1</v>
-      </c>
-      <c r="M44" t="s">
-        <v>125</v>
       </c>
       <c r="N44">
         <v>8700</v>
@@ -4030,16 +4018,16 @@
         <v>0</v>
       </c>
       <c r="U44" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="V44" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="W44" t="s">
         <v>26</v>
       </c>
       <c r="X44" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="45" spans="1:24">
@@ -4053,34 +4041,34 @@
         <v>87</v>
       </c>
       <c r="D45" s="2">
-        <v>45699.21845799799</v>
+        <v>45699.238753585</v>
       </c>
       <c r="E45" s="2">
-        <v>45699.21845799799</v>
+        <v>45699.238753585</v>
       </c>
       <c r="F45" s="2">
-        <v>45699.238753585</v>
+        <v>45699.26581436768</v>
       </c>
       <c r="G45">
         <v>0</v>
       </c>
       <c r="H45">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I45">
-        <v>0.4870940882597836</v>
+        <v>0.649458784346378</v>
       </c>
       <c r="J45">
         <v>6.158974358974358</v>
       </c>
       <c r="K45" t="s">
+        <v>118</v>
+      </c>
+      <c r="L45">
+        <v>1</v>
+      </c>
+      <c r="M45" t="s">
         <v>121</v>
-      </c>
-      <c r="L45">
-        <v>1</v>
-      </c>
-      <c r="M45" t="s">
-        <v>125</v>
       </c>
       <c r="N45">
         <v>8700</v>
@@ -4101,16 +4089,16 @@
         <v>0</v>
       </c>
       <c r="U45" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="V45" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="W45" t="s">
         <v>26</v>
       </c>
       <c r="X45" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="46" spans="1:24">
@@ -4124,34 +4112,34 @@
         <v>88</v>
       </c>
       <c r="D46" s="2">
-        <v>45699.238753585</v>
+        <v>45699.26581436768</v>
       </c>
       <c r="E46" s="2">
-        <v>45699.238753585</v>
+        <v>45699.26581436768</v>
       </c>
       <c r="F46" s="2">
-        <v>45699.26581436768</v>
+        <v>45699.34023152006</v>
       </c>
       <c r="G46">
         <v>0</v>
       </c>
       <c r="H46">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="I46">
-        <v>0.649458784346378</v>
+        <v>1.78601165695254</v>
       </c>
       <c r="J46">
         <v>6.158974358974358</v>
       </c>
       <c r="K46" t="s">
+        <v>118</v>
+      </c>
+      <c r="L46">
+        <v>1</v>
+      </c>
+      <c r="M46" t="s">
         <v>121</v>
-      </c>
-      <c r="L46">
-        <v>1</v>
-      </c>
-      <c r="M46" t="s">
-        <v>125</v>
       </c>
       <c r="N46">
         <v>8700</v>
@@ -4172,16 +4160,16 @@
         <v>0</v>
       </c>
       <c r="U46" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="V46" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="W46" t="s">
         <v>26</v>
       </c>
       <c r="X46" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="47" spans="1:24">
@@ -4195,34 +4183,34 @@
         <v>89</v>
       </c>
       <c r="D47" s="2">
-        <v>45699.26581436768</v>
+        <v>45699.34023152006</v>
       </c>
       <c r="E47" s="2">
-        <v>45699.26581436768</v>
+        <v>45699.34023152006</v>
       </c>
       <c r="F47" s="2">
-        <v>45699.34023152006</v>
+        <v>45699.34699671573</v>
       </c>
       <c r="G47">
         <v>0</v>
       </c>
       <c r="H47">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="I47">
-        <v>1.78601165695254</v>
+        <v>0.1623646960865945</v>
       </c>
       <c r="J47">
         <v>6.158974358974358</v>
       </c>
       <c r="K47" t="s">
+        <v>118</v>
+      </c>
+      <c r="L47">
+        <v>1</v>
+      </c>
+      <c r="M47" t="s">
         <v>121</v>
-      </c>
-      <c r="L47">
-        <v>1</v>
-      </c>
-      <c r="M47" t="s">
-        <v>125</v>
       </c>
       <c r="N47">
         <v>8700</v>
@@ -4243,16 +4231,16 @@
         <v>0</v>
       </c>
       <c r="U47" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="V47" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="W47" t="s">
         <v>26</v>
       </c>
       <c r="X47" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="48" spans="1:24">
@@ -4266,34 +4254,34 @@
         <v>90</v>
       </c>
       <c r="D48" s="2">
-        <v>45699.34023152006</v>
+        <v>45699.34699671573</v>
       </c>
       <c r="E48" s="2">
-        <v>45699.34023152006</v>
+        <v>45699.34699671573</v>
       </c>
       <c r="F48" s="2">
-        <v>45699.34699671573</v>
+        <v>45699.4890658248</v>
       </c>
       <c r="G48">
         <v>0</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="I48">
-        <v>0.1623646960865945</v>
+        <v>3.409658617818485</v>
       </c>
       <c r="J48">
         <v>6.158974358974358</v>
       </c>
       <c r="K48" t="s">
+        <v>118</v>
+      </c>
+      <c r="L48">
+        <v>1</v>
+      </c>
+      <c r="M48" t="s">
         <v>121</v>
-      </c>
-      <c r="L48">
-        <v>1</v>
-      </c>
-      <c r="M48" t="s">
-        <v>125</v>
       </c>
       <c r="N48">
         <v>8700</v>
@@ -4314,16 +4302,16 @@
         <v>0</v>
       </c>
       <c r="U48" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="V48" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="W48" t="s">
         <v>26</v>
       </c>
       <c r="X48" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="49" spans="1:24">
@@ -4337,34 +4325,34 @@
         <v>91</v>
       </c>
       <c r="D49" s="2">
-        <v>45699.34699671573</v>
+        <v>45699.4890658248</v>
       </c>
       <c r="E49" s="2">
-        <v>45699.34699671573</v>
+        <v>45699.4890658248</v>
       </c>
       <c r="F49" s="2">
-        <v>45699.4890658248</v>
+        <v>45699.50259621615</v>
       </c>
       <c r="G49">
         <v>0</v>
       </c>
       <c r="H49">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="I49">
-        <v>3.409658617818485</v>
+        <v>0.324729392173189</v>
       </c>
       <c r="J49">
         <v>6.158974358974358</v>
       </c>
       <c r="K49" t="s">
+        <v>118</v>
+      </c>
+      <c r="L49">
+        <v>1</v>
+      </c>
+      <c r="M49" t="s">
         <v>121</v>
-      </c>
-      <c r="L49">
-        <v>1</v>
-      </c>
-      <c r="M49" t="s">
-        <v>125</v>
       </c>
       <c r="N49">
         <v>8700</v>
@@ -4385,16 +4373,16 @@
         <v>0</v>
       </c>
       <c r="U49" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="V49" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="W49" t="s">
         <v>26</v>
       </c>
       <c r="X49" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="50" spans="1:24">
@@ -4408,34 +4396,34 @@
         <v>92</v>
       </c>
       <c r="D50" s="2">
-        <v>45699.4890658248</v>
+        <v>45699.50259621615</v>
       </c>
       <c r="E50" s="2">
-        <v>45699.4890658248</v>
+        <v>45699.50259621615</v>
       </c>
       <c r="F50" s="2">
-        <v>45699.50259621615</v>
+        <v>45699.54318739016</v>
       </c>
       <c r="G50">
         <v>0</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I50">
-        <v>0.324729392173189</v>
+        <v>0.9741881765195671</v>
       </c>
       <c r="J50">
         <v>6.158974358974358</v>
       </c>
       <c r="K50" t="s">
+        <v>118</v>
+      </c>
+      <c r="L50">
+        <v>1</v>
+      </c>
+      <c r="M50" t="s">
         <v>121</v>
-      </c>
-      <c r="L50">
-        <v>1</v>
-      </c>
-      <c r="M50" t="s">
-        <v>125</v>
       </c>
       <c r="N50">
         <v>8700</v>
@@ -4456,16 +4444,16 @@
         <v>0</v>
       </c>
       <c r="U50" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="V50" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="W50" t="s">
         <v>26</v>
       </c>
       <c r="X50" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="51" spans="1:24">
@@ -4479,34 +4467,34 @@
         <v>93</v>
       </c>
       <c r="D51" s="2">
-        <v>45699.50259621615</v>
+        <v>45699.54318739016</v>
       </c>
       <c r="E51" s="2">
-        <v>45699.50259621615</v>
+        <v>45699.54318739016</v>
       </c>
       <c r="F51" s="2">
-        <v>45699.54318739016</v>
+        <v>45699.61760454254</v>
       </c>
       <c r="G51">
         <v>0</v>
       </c>
       <c r="H51">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="I51">
-        <v>0.9741881765195671</v>
+        <v>1.78601165695254</v>
       </c>
       <c r="J51">
         <v>6.158974358974358</v>
       </c>
       <c r="K51" t="s">
+        <v>118</v>
+      </c>
+      <c r="L51">
+        <v>1</v>
+      </c>
+      <c r="M51" t="s">
         <v>121</v>
-      </c>
-      <c r="L51">
-        <v>1</v>
-      </c>
-      <c r="M51" t="s">
-        <v>125</v>
       </c>
       <c r="N51">
         <v>8700</v>
@@ -4527,16 +4515,16 @@
         <v>0</v>
       </c>
       <c r="U51" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="V51" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="W51" t="s">
         <v>26</v>
       </c>
       <c r="X51" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="52" spans="1:24">
@@ -4550,34 +4538,34 @@
         <v>94</v>
       </c>
       <c r="D52" s="2">
-        <v>45699.54318739016</v>
+        <v>45699.61760454254</v>
       </c>
       <c r="E52" s="2">
-        <v>45699.54318739016</v>
+        <v>45699.61760454254</v>
       </c>
       <c r="F52" s="2">
-        <v>45699.61760454254</v>
+        <v>45699.63790012955</v>
       </c>
       <c r="G52">
         <v>0</v>
       </c>
       <c r="H52">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="I52">
-        <v>1.78601165695254</v>
+        <v>0.4870940882597836</v>
       </c>
       <c r="J52">
         <v>6.158974358974358</v>
       </c>
       <c r="K52" t="s">
+        <v>118</v>
+      </c>
+      <c r="L52">
+        <v>1</v>
+      </c>
+      <c r="M52" t="s">
         <v>121</v>
-      </c>
-      <c r="L52">
-        <v>1</v>
-      </c>
-      <c r="M52" t="s">
-        <v>125</v>
       </c>
       <c r="N52">
         <v>8700</v>
@@ -4598,16 +4586,16 @@
         <v>0</v>
       </c>
       <c r="U52" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="V52" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="W52" t="s">
         <v>26</v>
       </c>
       <c r="X52" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="53" spans="1:24">
@@ -4621,16 +4609,16 @@
         <v>95</v>
       </c>
       <c r="D53" s="2">
-        <v>45699.61760454254</v>
+        <v>45699.63790012955</v>
       </c>
       <c r="E53" s="2">
-        <v>45699.61760454254</v>
+        <v>45700.28319571656</v>
       </c>
       <c r="F53" s="2">
-        <v>45699.63790012955</v>
+        <v>45700.30349130357</v>
       </c>
       <c r="G53">
-        <v>0</v>
+        <v>15.48709408833333</v>
       </c>
       <c r="H53">
         <v>3</v>
@@ -4642,13 +4630,13 @@
         <v>6.158974358974358</v>
       </c>
       <c r="K53" t="s">
+        <v>118</v>
+      </c>
+      <c r="L53">
+        <v>1</v>
+      </c>
+      <c r="M53" t="s">
         <v>121</v>
-      </c>
-      <c r="L53">
-        <v>1</v>
-      </c>
-      <c r="M53" t="s">
-        <v>125</v>
       </c>
       <c r="N53">
         <v>8700</v>
@@ -4669,16 +4657,16 @@
         <v>0</v>
       </c>
       <c r="U53" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="V53" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="W53" t="s">
         <v>26</v>
       </c>
       <c r="X53" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="54" spans="1:24">
@@ -4692,34 +4680,34 @@
         <v>96</v>
       </c>
       <c r="D54" s="2">
-        <v>45699.63790012955</v>
+        <v>45700.30349130357</v>
       </c>
       <c r="E54" s="2">
-        <v>45700.28319571656</v>
+        <v>45700.30349130357</v>
       </c>
       <c r="F54" s="2">
-        <v>45700.28319571656</v>
+        <v>45700.39820404296</v>
       </c>
       <c r="G54">
-        <v>15.48709408833333</v>
+        <v>0</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="I54">
-        <v>0</v>
+        <v>2.273105745212323</v>
       </c>
       <c r="J54">
-        <v>0</v>
+        <v>6.158974358974358</v>
       </c>
       <c r="K54" t="s">
+        <v>118</v>
+      </c>
+      <c r="L54">
+        <v>1</v>
+      </c>
+      <c r="M54" t="s">
         <v>121</v>
-      </c>
-      <c r="L54">
-        <v>1</v>
-      </c>
-      <c r="M54" t="s">
-        <v>125</v>
       </c>
       <c r="N54">
         <v>8700</v>
@@ -4740,16 +4728,16 @@
         <v>0</v>
       </c>
       <c r="U54" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="V54" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="W54" t="s">
         <v>26</v>
       </c>
       <c r="X54" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="55" spans="1:24">
@@ -4763,34 +4751,34 @@
         <v>97</v>
       </c>
       <c r="D55" s="2">
-        <v>45700.28319571656</v>
+        <v>45700.39820404296</v>
       </c>
       <c r="E55" s="2">
-        <v>45700.28319571656</v>
+        <v>45700.39820404296</v>
       </c>
       <c r="F55" s="2">
-        <v>45700.30349130357</v>
+        <v>45700.4117344343</v>
       </c>
       <c r="G55">
         <v>0</v>
       </c>
       <c r="H55">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I55">
-        <v>0.4870940882597836</v>
+        <v>0.324729392173189</v>
       </c>
       <c r="J55">
-        <v>0</v>
+        <v>6.158974358974358</v>
       </c>
       <c r="K55" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="L55">
         <v>1</v>
       </c>
       <c r="M55" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="N55">
         <v>8700</v>
@@ -4811,16 +4799,16 @@
         <v>0</v>
       </c>
       <c r="U55" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="V55" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="W55" t="s">
         <v>26</v>
       </c>
       <c r="X55" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="56" spans="1:24">
@@ -4834,34 +4822,34 @@
         <v>98</v>
       </c>
       <c r="D56" s="2">
-        <v>45700.30349130357</v>
+        <v>45700.4117344343</v>
       </c>
       <c r="E56" s="2">
-        <v>45700.30349130357</v>
+        <v>45700.4117344343</v>
       </c>
       <c r="F56" s="2">
-        <v>45700.39820404296</v>
+        <v>45700.42526482565</v>
       </c>
       <c r="G56">
         <v>0</v>
       </c>
       <c r="H56">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="I56">
-        <v>2.273105745212323</v>
+        <v>0.324729392173189</v>
       </c>
       <c r="J56">
         <v>6.158974358974358</v>
       </c>
       <c r="K56" t="s">
+        <v>118</v>
+      </c>
+      <c r="L56">
+        <v>1</v>
+      </c>
+      <c r="M56" t="s">
         <v>121</v>
-      </c>
-      <c r="L56">
-        <v>1</v>
-      </c>
-      <c r="M56" t="s">
-        <v>125</v>
       </c>
       <c r="N56">
         <v>8700</v>
@@ -4882,16 +4870,16 @@
         <v>0</v>
       </c>
       <c r="U56" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="V56" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="W56" t="s">
         <v>26</v>
       </c>
       <c r="X56" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="57" spans="1:24">
@@ -4905,13 +4893,13 @@
         <v>99</v>
       </c>
       <c r="D57" s="2">
-        <v>45700.39820404296</v>
+        <v>45700.42526482565</v>
       </c>
       <c r="E57" s="2">
-        <v>45700.39820404296</v>
+        <v>45700.42526482565</v>
       </c>
       <c r="F57" s="2">
-        <v>45700.4117344343</v>
+        <v>45700.43879521699</v>
       </c>
       <c r="G57">
         <v>0</v>
@@ -4926,13 +4914,13 @@
         <v>6.158974358974358</v>
       </c>
       <c r="K57" t="s">
+        <v>118</v>
+      </c>
+      <c r="L57">
+        <v>1</v>
+      </c>
+      <c r="M57" t="s">
         <v>121</v>
-      </c>
-      <c r="L57">
-        <v>1</v>
-      </c>
-      <c r="M57" t="s">
-        <v>125</v>
       </c>
       <c r="N57">
         <v>8700</v>
@@ -4953,16 +4941,16 @@
         <v>0</v>
       </c>
       <c r="U57" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="V57" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="W57" t="s">
         <v>26</v>
       </c>
       <c r="X57" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="58" spans="1:24">
@@ -4976,34 +4964,34 @@
         <v>100</v>
       </c>
       <c r="D58" s="2">
-        <v>45700.4117344343</v>
+        <v>45700.43879521699</v>
       </c>
       <c r="E58" s="2">
-        <v>45700.4117344343</v>
+        <v>45700.43879521699</v>
       </c>
       <c r="F58" s="2">
-        <v>45700.42526482565</v>
+        <v>45700.48615158668</v>
       </c>
       <c r="G58">
         <v>0</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I58">
-        <v>0.324729392173189</v>
+        <v>1.136552872606162</v>
       </c>
       <c r="J58">
         <v>6.158974358974358</v>
       </c>
       <c r="K58" t="s">
+        <v>118</v>
+      </c>
+      <c r="L58">
+        <v>1</v>
+      </c>
+      <c r="M58" t="s">
         <v>121</v>
-      </c>
-      <c r="L58">
-        <v>1</v>
-      </c>
-      <c r="M58" t="s">
-        <v>125</v>
       </c>
       <c r="N58">
         <v>8700</v>
@@ -5024,16 +5012,16 @@
         <v>0</v>
       </c>
       <c r="U58" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="V58" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="W58" t="s">
         <v>26</v>
       </c>
       <c r="X58" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="59" spans="1:24">
@@ -5047,34 +5035,34 @@
         <v>101</v>
       </c>
       <c r="D59" s="2">
-        <v>45700.42526482565</v>
+        <v>45700.48615158668</v>
       </c>
       <c r="E59" s="2">
-        <v>45700.42526482565</v>
+        <v>45700.48615158668</v>
       </c>
       <c r="F59" s="2">
-        <v>45700.43879521699</v>
+        <v>45700.55380354338</v>
       </c>
       <c r="G59">
         <v>0</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="I59">
-        <v>0.324729392173189</v>
+        <v>1.623646960865945</v>
       </c>
       <c r="J59">
         <v>6.158974358974358</v>
       </c>
       <c r="K59" t="s">
+        <v>118</v>
+      </c>
+      <c r="L59">
+        <v>1</v>
+      </c>
+      <c r="M59" t="s">
         <v>121</v>
-      </c>
-      <c r="L59">
-        <v>1</v>
-      </c>
-      <c r="M59" t="s">
-        <v>125</v>
       </c>
       <c r="N59">
         <v>8700</v>
@@ -5095,16 +5083,16 @@
         <v>0</v>
       </c>
       <c r="U59" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="V59" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="W59" t="s">
         <v>26</v>
       </c>
       <c r="X59" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="60" spans="1:24">
@@ -5118,34 +5106,34 @@
         <v>102</v>
       </c>
       <c r="D60" s="2">
-        <v>45700.43879521699</v>
+        <v>45700.55380354338</v>
       </c>
       <c r="E60" s="2">
-        <v>45700.43879521699</v>
+        <v>45700.55380354338</v>
       </c>
       <c r="F60" s="2">
-        <v>45700.48615158668</v>
+        <v>45700.56733393472</v>
       </c>
       <c r="G60">
         <v>0</v>
       </c>
       <c r="H60">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I60">
-        <v>1.136552872606162</v>
+        <v>0.324729392173189</v>
       </c>
       <c r="J60">
         <v>6.158974358974358</v>
       </c>
       <c r="K60" t="s">
+        <v>118</v>
+      </c>
+      <c r="L60">
+        <v>1</v>
+      </c>
+      <c r="M60" t="s">
         <v>121</v>
-      </c>
-      <c r="L60">
-        <v>1</v>
-      </c>
-      <c r="M60" t="s">
-        <v>125</v>
       </c>
       <c r="N60">
         <v>8700</v>
@@ -5166,16 +5154,16 @@
         <v>0</v>
       </c>
       <c r="U60" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="V60" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="W60" t="s">
         <v>26</v>
       </c>
       <c r="X60" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="61" spans="1:24">
@@ -5189,34 +5177,34 @@
         <v>103</v>
       </c>
       <c r="D61" s="2">
-        <v>45700.48615158668</v>
+        <v>45700.56733393472</v>
       </c>
       <c r="E61" s="2">
-        <v>45700.48615158668</v>
+        <v>45700.56733393472</v>
       </c>
       <c r="F61" s="2">
-        <v>45700.55380354338</v>
+        <v>45700.58762952174</v>
       </c>
       <c r="G61">
         <v>0</v>
       </c>
       <c r="H61">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="I61">
-        <v>1.623646960865945</v>
+        <v>0.4870940882597836</v>
       </c>
       <c r="J61">
         <v>6.158974358974358</v>
       </c>
       <c r="K61" t="s">
+        <v>118</v>
+      </c>
+      <c r="L61">
+        <v>1</v>
+      </c>
+      <c r="M61" t="s">
         <v>121</v>
-      </c>
-      <c r="L61">
-        <v>1</v>
-      </c>
-      <c r="M61" t="s">
-        <v>125</v>
       </c>
       <c r="N61">
         <v>8700</v>
@@ -5237,16 +5225,16 @@
         <v>0</v>
       </c>
       <c r="U61" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="V61" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="W61" t="s">
         <v>26</v>
       </c>
       <c r="X61" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="62" spans="1:24">
@@ -5260,13 +5248,13 @@
         <v>104</v>
       </c>
       <c r="D62" s="2">
-        <v>45700.55380354338</v>
+        <v>45700.58762952174</v>
       </c>
       <c r="E62" s="2">
-        <v>45700.55380354338</v>
+        <v>45700.58762952174</v>
       </c>
       <c r="F62" s="2">
-        <v>45700.56733393472</v>
+        <v>45700.60115991308</v>
       </c>
       <c r="G62">
         <v>0</v>
@@ -5281,13 +5269,13 @@
         <v>6.158974358974358</v>
       </c>
       <c r="K62" t="s">
+        <v>118</v>
+      </c>
+      <c r="L62">
+        <v>1</v>
+      </c>
+      <c r="M62" t="s">
         <v>121</v>
-      </c>
-      <c r="L62">
-        <v>1</v>
-      </c>
-      <c r="M62" t="s">
-        <v>125</v>
       </c>
       <c r="N62">
         <v>8700</v>
@@ -5308,16 +5296,16 @@
         <v>0</v>
       </c>
       <c r="U62" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="V62" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="W62" t="s">
         <v>26</v>
       </c>
       <c r="X62" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="63" spans="1:24">
@@ -5331,34 +5319,34 @@
         <v>105</v>
       </c>
       <c r="D63" s="2">
-        <v>45700.56733393472</v>
+        <v>45700.60115991308</v>
       </c>
       <c r="E63" s="2">
-        <v>45700.56733393472</v>
+        <v>45700.60115991308</v>
       </c>
       <c r="F63" s="2">
-        <v>45700.58762952174</v>
+        <v>45700.60792510875</v>
       </c>
       <c r="G63">
         <v>0</v>
       </c>
       <c r="H63">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I63">
-        <v>0.4870940882597836</v>
+        <v>0.1623646960865945</v>
       </c>
       <c r="J63">
         <v>6.158974358974358</v>
       </c>
       <c r="K63" t="s">
+        <v>118</v>
+      </c>
+      <c r="L63">
+        <v>1</v>
+      </c>
+      <c r="M63" t="s">
         <v>121</v>
-      </c>
-      <c r="L63">
-        <v>1</v>
-      </c>
-      <c r="M63" t="s">
-        <v>125</v>
       </c>
       <c r="N63">
         <v>8700</v>
@@ -5379,16 +5367,16 @@
         <v>0</v>
       </c>
       <c r="U63" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="V63" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="W63" t="s">
         <v>26</v>
       </c>
       <c r="X63" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="64" spans="1:24">
@@ -5402,34 +5390,34 @@
         <v>106</v>
       </c>
       <c r="D64" s="2">
-        <v>45700.58762952174</v>
+        <v>45700.60792510875</v>
       </c>
       <c r="E64" s="2">
-        <v>45700.58762952174</v>
+        <v>45700.60792510875</v>
       </c>
       <c r="F64" s="2">
-        <v>45700.60115991308</v>
+        <v>45700.61469030442</v>
       </c>
       <c r="G64">
         <v>0</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I64">
-        <v>0.324729392173189</v>
+        <v>0.1623646960865945</v>
       </c>
       <c r="J64">
         <v>6.158974358974358</v>
       </c>
       <c r="K64" t="s">
+        <v>118</v>
+      </c>
+      <c r="L64">
+        <v>1</v>
+      </c>
+      <c r="M64" t="s">
         <v>121</v>
-      </c>
-      <c r="L64">
-        <v>1</v>
-      </c>
-      <c r="M64" t="s">
-        <v>125</v>
       </c>
       <c r="N64">
         <v>8700</v>
@@ -5450,16 +5438,16 @@
         <v>0</v>
       </c>
       <c r="U64" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="V64" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="W64" t="s">
         <v>26</v>
       </c>
       <c r="X64" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="65" spans="1:24">
@@ -5473,34 +5461,34 @@
         <v>107</v>
       </c>
       <c r="D65" s="2">
-        <v>45700.60115991308</v>
+        <v>45700.61469030442</v>
       </c>
       <c r="E65" s="2">
-        <v>45700.60115991308</v>
+        <v>45700.61469030442</v>
       </c>
       <c r="F65" s="2">
-        <v>45700.60792510875</v>
+        <v>45700.62822069576</v>
       </c>
       <c r="G65">
         <v>0</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I65">
-        <v>0.1623646960865945</v>
+        <v>0.324729392173189</v>
       </c>
       <c r="J65">
         <v>6.158974358974358</v>
       </c>
       <c r="K65" t="s">
+        <v>118</v>
+      </c>
+      <c r="L65">
+        <v>1</v>
+      </c>
+      <c r="M65" t="s">
         <v>121</v>
-      </c>
-      <c r="L65">
-        <v>1</v>
-      </c>
-      <c r="M65" t="s">
-        <v>125</v>
       </c>
       <c r="N65">
         <v>8700</v>
@@ -5521,16 +5509,16 @@
         <v>0</v>
       </c>
       <c r="U65" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="V65" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="W65" t="s">
         <v>26</v>
       </c>
       <c r="X65" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="66" spans="1:24">
@@ -5544,13 +5532,13 @@
         <v>108</v>
       </c>
       <c r="D66" s="2">
-        <v>45700.60792510875</v>
+        <v>45700.62822069576</v>
       </c>
       <c r="E66" s="2">
-        <v>45700.60792510875</v>
+        <v>45700.62822069576</v>
       </c>
       <c r="F66" s="2">
-        <v>45700.61469030442</v>
+        <v>45700.63498589143</v>
       </c>
       <c r="G66">
         <v>0</v>
@@ -5565,13 +5553,13 @@
         <v>6.158974358974358</v>
       </c>
       <c r="K66" t="s">
+        <v>118</v>
+      </c>
+      <c r="L66">
+        <v>1</v>
+      </c>
+      <c r="M66" t="s">
         <v>121</v>
-      </c>
-      <c r="L66">
-        <v>1</v>
-      </c>
-      <c r="M66" t="s">
-        <v>125</v>
       </c>
       <c r="N66">
         <v>8700</v>
@@ -5592,16 +5580,16 @@
         <v>0</v>
       </c>
       <c r="U66" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="V66" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="W66" t="s">
         <v>26</v>
       </c>
       <c r="X66" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="67" spans="1:24">
@@ -5615,16 +5603,16 @@
         <v>109</v>
       </c>
       <c r="D67" s="2">
-        <v>45700.61469030442</v>
+        <v>45700.63498589143</v>
       </c>
       <c r="E67" s="2">
-        <v>45700.61469030442</v>
+        <v>45700.89851628278</v>
       </c>
       <c r="F67" s="2">
-        <v>45700.62822069576</v>
+        <v>45700.91204667412</v>
       </c>
       <c r="G67">
-        <v>0</v>
+        <v>6.324729392222222</v>
       </c>
       <c r="H67">
         <v>2</v>
@@ -5636,13 +5624,13 @@
         <v>6.158974358974358</v>
       </c>
       <c r="K67" t="s">
+        <v>118</v>
+      </c>
+      <c r="L67">
+        <v>1</v>
+      </c>
+      <c r="M67" t="s">
         <v>121</v>
-      </c>
-      <c r="L67">
-        <v>1</v>
-      </c>
-      <c r="M67" t="s">
-        <v>125</v>
       </c>
       <c r="N67">
         <v>8700</v>
@@ -5663,16 +5651,16 @@
         <v>0</v>
       </c>
       <c r="U67" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="V67" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="W67" t="s">
         <v>26</v>
       </c>
       <c r="X67" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="68" spans="1:24">
@@ -5686,13 +5674,13 @@
         <v>110</v>
       </c>
       <c r="D68" s="2">
-        <v>45700.62822069576</v>
+        <v>45700.91204667412</v>
       </c>
       <c r="E68" s="2">
-        <v>45700.62822069576</v>
+        <v>45700.91204667412</v>
       </c>
       <c r="F68" s="2">
-        <v>45700.63498589143</v>
+        <v>45700.91881186979</v>
       </c>
       <c r="G68">
         <v>0</v>
@@ -5707,13 +5695,13 @@
         <v>6.158974358974358</v>
       </c>
       <c r="K68" t="s">
+        <v>118</v>
+      </c>
+      <c r="L68">
+        <v>1</v>
+      </c>
+      <c r="M68" t="s">
         <v>121</v>
-      </c>
-      <c r="L68">
-        <v>1</v>
-      </c>
-      <c r="M68" t="s">
-        <v>125</v>
       </c>
       <c r="N68">
         <v>8700</v>
@@ -5734,16 +5722,16 @@
         <v>0</v>
       </c>
       <c r="U68" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="V68" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="W68" t="s">
         <v>26</v>
       </c>
       <c r="X68" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="69" spans="1:24">
@@ -5757,34 +5745,34 @@
         <v>111</v>
       </c>
       <c r="D69" s="2">
-        <v>45700.63498589143</v>
+        <v>45700.91881186979</v>
       </c>
       <c r="E69" s="2">
-        <v>45700.89851628278</v>
+        <v>45700.91881186979</v>
       </c>
       <c r="F69" s="2">
-        <v>45700.89851628278</v>
+        <v>45700.92557706546</v>
       </c>
       <c r="G69">
-        <v>6.324729392222222</v>
+        <v>0</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I69">
-        <v>0</v>
+        <v>0.1623646960865945</v>
       </c>
       <c r="J69">
-        <v>0</v>
+        <v>6.158974358974358</v>
       </c>
       <c r="K69" t="s">
+        <v>118</v>
+      </c>
+      <c r="L69">
+        <v>1</v>
+      </c>
+      <c r="M69" t="s">
         <v>121</v>
-      </c>
-      <c r="L69">
-        <v>1</v>
-      </c>
-      <c r="M69" t="s">
-        <v>125</v>
       </c>
       <c r="N69">
         <v>8700</v>
@@ -5805,16 +5793,16 @@
         <v>0</v>
       </c>
       <c r="U69" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="V69" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="W69" t="s">
         <v>26</v>
       </c>
       <c r="X69" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="70" spans="1:24">
@@ -5828,13 +5816,13 @@
         <v>112</v>
       </c>
       <c r="D70" s="2">
-        <v>45700.89851628278</v>
+        <v>45700.92557706546</v>
       </c>
       <c r="E70" s="2">
-        <v>45700.89851628278</v>
+        <v>45700.92557706546</v>
       </c>
       <c r="F70" s="2">
-        <v>45700.91204667412</v>
+        <v>45700.9391074568</v>
       </c>
       <c r="G70">
         <v>0</v>
@@ -5846,16 +5834,16 @@
         <v>0.324729392173189</v>
       </c>
       <c r="J70">
-        <v>0</v>
+        <v>6.158974358974358</v>
       </c>
       <c r="K70" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="L70">
         <v>1</v>
       </c>
       <c r="M70" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="N70">
         <v>8700</v>
@@ -5876,51 +5864,51 @@
         <v>0</v>
       </c>
       <c r="U70" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="V70" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="W70" t="s">
         <v>26</v>
       </c>
       <c r="X70" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="71" spans="1:24">
       <c r="A71" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B71" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C71" t="s">
         <v>113</v>
       </c>
       <c r="D71" s="2">
-        <v>45700.91204667412</v>
+        <v>45700.9391074568</v>
       </c>
       <c r="E71" s="2">
-        <v>45700.91204667412</v>
+        <v>45700.9391074568</v>
       </c>
       <c r="F71" s="2">
-        <v>45700.91881186979</v>
+        <v>45701.1578574568</v>
       </c>
       <c r="G71">
         <v>0</v>
       </c>
       <c r="H71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71">
-        <v>0.1623646960865945</v>
+        <v>5.25</v>
       </c>
       <c r="J71">
-        <v>6.158974358974358</v>
+        <v>600</v>
       </c>
       <c r="K71" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L71">
         <v>1</v>
@@ -5929,7 +5917,7 @@
         <v>125</v>
       </c>
       <c r="N71">
-        <v>8700</v>
+        <v>3150</v>
       </c>
       <c r="O71">
         <v>0</v>
@@ -5947,60 +5935,60 @@
         <v>0</v>
       </c>
       <c r="U71" t="s">
+        <v>29</v>
+      </c>
+      <c r="V71" t="s">
         <v>174</v>
       </c>
-      <c r="V71" t="s">
-        <v>178</v>
-      </c>
       <c r="W71" t="s">
         <v>26</v>
       </c>
       <c r="X71" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="72" spans="1:24">
       <c r="A72" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B72" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C72" t="s">
         <v>114</v>
       </c>
       <c r="D72" s="2">
-        <v>45700.91881186979</v>
+        <v>45701.1578574568</v>
       </c>
       <c r="E72" s="2">
-        <v>45700.91881186979</v>
+        <v>45701.1578574568</v>
       </c>
       <c r="F72" s="2">
-        <v>45700.92557706546</v>
+        <v>45701.3592463457</v>
       </c>
       <c r="G72">
         <v>0</v>
       </c>
       <c r="H72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72">
-        <v>0.1623646960865945</v>
+        <v>4.833333333333333</v>
       </c>
       <c r="J72">
-        <v>6.158974358974358</v>
+        <v>600</v>
       </c>
       <c r="K72" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L72">
         <v>1</v>
       </c>
       <c r="M72" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="N72">
-        <v>8700</v>
+        <v>2900</v>
       </c>
       <c r="O72">
         <v>0</v>
@@ -6018,60 +6006,60 @@
         <v>0</v>
       </c>
       <c r="U72" t="s">
-        <v>175</v>
+        <v>29</v>
       </c>
       <c r="V72" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="W72" t="s">
         <v>26</v>
       </c>
       <c r="X72" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="73" spans="1:24">
       <c r="A73" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B73" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C73" t="s">
         <v>115</v>
       </c>
       <c r="D73" s="2">
-        <v>45700.92557706546</v>
+        <v>45701.3592463457</v>
       </c>
       <c r="E73" s="2">
-        <v>45700.92557706546</v>
+        <v>45701.3592463457</v>
       </c>
       <c r="F73" s="2">
-        <v>45700.9391074568</v>
+        <v>45701.5328574568</v>
       </c>
       <c r="G73">
         <v>0</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73">
-        <v>0.324729392173189</v>
+        <v>4.166666666666667</v>
       </c>
       <c r="J73">
-        <v>6.158974358974358</v>
+        <v>600</v>
       </c>
       <c r="K73" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L73">
         <v>1</v>
       </c>
       <c r="M73" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="N73">
-        <v>8700</v>
+        <v>2500</v>
       </c>
       <c r="O73">
         <v>0</v>
@@ -6089,16 +6077,16 @@
         <v>0</v>
       </c>
       <c r="U73" t="s">
+        <v>29</v>
+      </c>
+      <c r="V73" t="s">
+        <v>174</v>
+      </c>
+      <c r="W73" t="s">
+        <v>26</v>
+      </c>
+      <c r="X73" t="s">
         <v>176</v>
-      </c>
-      <c r="V73" t="s">
-        <v>178</v>
-      </c>
-      <c r="W73" t="s">
-        <v>26</v>
-      </c>
-      <c r="X73" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="74" spans="1:24">
@@ -6112,13 +6100,13 @@
         <v>116</v>
       </c>
       <c r="D74" s="2">
-        <v>45700.9391074568</v>
+        <v>45701.5328574568</v>
       </c>
       <c r="E74" s="2">
-        <v>45700.9391074568</v>
+        <v>45701.5328574568</v>
       </c>
       <c r="F74" s="2">
-        <v>45701.1578574568</v>
+        <v>45701.54327412347</v>
       </c>
       <c r="G74">
         <v>0</v>
@@ -6127,22 +6115,22 @@
         <v>0</v>
       </c>
       <c r="I74">
-        <v>5.25</v>
+        <v>0.25</v>
       </c>
       <c r="J74">
         <v>600</v>
       </c>
       <c r="K74" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="L74">
         <v>1</v>
       </c>
       <c r="M74" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="N74">
-        <v>3150</v>
+        <v>150</v>
       </c>
       <c r="O74">
         <v>0</v>
@@ -6163,226 +6151,13 @@
         <v>29</v>
       </c>
       <c r="V74" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="W74" t="s">
         <v>26</v>
       </c>
       <c r="X74" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="75" spans="1:24">
-      <c r="A75" t="s">
-        <v>26</v>
-      </c>
-      <c r="B75" t="s">
-        <v>44</v>
-      </c>
-      <c r="C75" t="s">
-        <v>117</v>
-      </c>
-      <c r="D75" s="2">
-        <v>45701.1578574568</v>
-      </c>
-      <c r="E75" s="2">
-        <v>45701.1578574568</v>
-      </c>
-      <c r="F75" s="2">
-        <v>45701.3592463457</v>
-      </c>
-      <c r="G75">
-        <v>0</v>
-      </c>
-      <c r="H75">
-        <v>0</v>
-      </c>
-      <c r="I75">
-        <v>4.833333333333333</v>
-      </c>
-      <c r="J75">
-        <v>600</v>
-      </c>
-      <c r="K75" t="s">
-        <v>122</v>
-      </c>
-      <c r="L75">
-        <v>1</v>
-      </c>
-      <c r="M75" t="s">
-        <v>130</v>
-      </c>
-      <c r="N75">
-        <v>2900</v>
-      </c>
-      <c r="O75">
-        <v>0</v>
-      </c>
-      <c r="P75">
-        <v>0</v>
-      </c>
-      <c r="Q75">
-        <v>0</v>
-      </c>
-      <c r="R75">
-        <v>0</v>
-      </c>
-      <c r="S75">
-        <v>0</v>
-      </c>
-      <c r="U75" t="s">
-        <v>29</v>
-      </c>
-      <c r="V75" t="s">
-        <v>178</v>
-      </c>
-      <c r="W75" t="s">
-        <v>26</v>
-      </c>
-      <c r="X75" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="76" spans="1:24">
-      <c r="A76" t="s">
-        <v>26</v>
-      </c>
-      <c r="B76" t="s">
-        <v>44</v>
-      </c>
-      <c r="C76" t="s">
-        <v>118</v>
-      </c>
-      <c r="D76" s="2">
-        <v>45701.3592463457</v>
-      </c>
-      <c r="E76" s="2">
-        <v>45701.3592463457</v>
-      </c>
-      <c r="F76" s="2">
-        <v>45701.5328574568</v>
-      </c>
-      <c r="G76">
-        <v>0</v>
-      </c>
-      <c r="H76">
-        <v>0</v>
-      </c>
-      <c r="I76">
-        <v>4.166666666666667</v>
-      </c>
-      <c r="J76">
-        <v>600</v>
-      </c>
-      <c r="K76" t="s">
-        <v>122</v>
-      </c>
-      <c r="L76">
-        <v>1</v>
-      </c>
-      <c r="M76" t="s">
-        <v>126</v>
-      </c>
-      <c r="N76">
-        <v>2500</v>
-      </c>
-      <c r="O76">
-        <v>0</v>
-      </c>
-      <c r="P76">
-        <v>0</v>
-      </c>
-      <c r="Q76">
-        <v>0</v>
-      </c>
-      <c r="R76">
-        <v>0</v>
-      </c>
-      <c r="S76">
-        <v>0</v>
-      </c>
-      <c r="U76" t="s">
-        <v>29</v>
-      </c>
-      <c r="V76" t="s">
-        <v>178</v>
-      </c>
-      <c r="W76" t="s">
-        <v>26</v>
-      </c>
-      <c r="X76" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="77" spans="1:24">
-      <c r="A77" t="s">
-        <v>26</v>
-      </c>
-      <c r="B77" t="s">
-        <v>44</v>
-      </c>
-      <c r="C77" t="s">
-        <v>119</v>
-      </c>
-      <c r="D77" s="2">
-        <v>45701.5328574568</v>
-      </c>
-      <c r="E77" s="2">
-        <v>45701.5328574568</v>
-      </c>
-      <c r="F77" s="2">
-        <v>45701.54327412347</v>
-      </c>
-      <c r="G77">
-        <v>0</v>
-      </c>
-      <c r="H77">
-        <v>0</v>
-      </c>
-      <c r="I77">
-        <v>0.25</v>
-      </c>
-      <c r="J77">
-        <v>600</v>
-      </c>
-      <c r="K77" t="s">
-        <v>122</v>
-      </c>
-      <c r="L77">
-        <v>1</v>
-      </c>
-      <c r="M77" t="s">
-        <v>131</v>
-      </c>
-      <c r="N77">
-        <v>150</v>
-      </c>
-      <c r="O77">
-        <v>0</v>
-      </c>
-      <c r="P77">
-        <v>0</v>
-      </c>
-      <c r="Q77">
-        <v>0</v>
-      </c>
-      <c r="R77">
-        <v>0</v>
-      </c>
-      <c r="S77">
-        <v>0</v>
-      </c>
-      <c r="U77" t="s">
-        <v>29</v>
-      </c>
-      <c r="V77" t="s">
-        <v>178</v>
-      </c>
-      <c r="W77" t="s">
-        <v>26</v>
-      </c>
-      <c r="X77" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
